--- a/log_history/Y3_B2526_Anatomy_scanner1761736698538_9e1bc92598ffbc303483fea38d92c57c9956e5f0f76ce41a6a4df0b669e58316.xlsx
+++ b/log_history/Y3_B2526_Anatomy_scanner1761736698538_9e1bc92598ffbc303483fea38d92c57c9956e5f0f76ce41a6a4df0b669e58316.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Anatomy" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y3_B2526_Anatomy_scanner1761736698538_9e1bc92598ffbc303483fea38d92c57c9956e5f0f76ce41a6a4df0b669e58316.xlsx
+++ b/log_history/Y3_B2526_Anatomy_scanner1761736698538_9e1bc92598ffbc303483fea38d92c57c9956e5f0f76ce41a6a4df0b669e58316.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Anatomy" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
